--- a/modelo_topográfico/SUMARIOS_TODOS.xlsx
+++ b/modelo_topográfico/SUMARIOS_TODOS.xlsx
@@ -15,11 +15,16 @@
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="best_AIC_sumario_cave_1" localSheetId="0">Plan1!$R$1:$Y$3</definedName>
+    <definedName name="best_AIC_sumario_cave_2" localSheetId="0">Plan1!$R$11:$Y$13</definedName>
+    <definedName name="best_AIC_sumario_cocha_1" localSheetId="0">Plan1!$R$11:$AE$13</definedName>
     <definedName name="coeficientes_lasso_cave" localSheetId="0">Plan1!$A$1:$B$10</definedName>
     <definedName name="coeficientes_lasso_cocha" localSheetId="0">Plan1!$A$14:$B$23</definedName>
     <definedName name="coeficientes_lasso_pand" localSheetId="0">Plan1!$A$26:$B$35</definedName>
     <definedName name="modelo_sumario_cave" localSheetId="0">Plan1!$D$1:$H$8</definedName>
+    <definedName name="modelo_sumario_cave_1" localSheetId="0">Plan1!$L$1:$P$7</definedName>
     <definedName name="modelo_sumario_cocha" localSheetId="0">Plan1!$D$14:$H$19</definedName>
+    <definedName name="modelo_sumario_cocha_1" localSheetId="0">Plan1!$L$11:$P$23</definedName>
     <definedName name="modelo_sumario_pand" localSheetId="0">Plan1!$D$26:$H$33</definedName>
   </definedNames>
   <calcPr calcId="152511" calcOnSave="0"/>
@@ -33,33 +38,60 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="coeficientes_lasso_cave" type="6" refreshedVersion="5" background="1" saveData="1">
-    <textPr codePage="932" sourceFile="C:\Queimadas\R_\fire-model\modelo_topográfico\APA Cavernas\resultados\coeficientes_lasso_cave.csv" comma="1">
-      <textFields count="2">
+  <connection id="1" name="best_AIC_sumario_cave" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Queimadas\R_\fire-model\modelo_ano\APA Cavernas\resultados\best_AIC_sumario_cave.csv" comma="1">
+      <textFields count="8">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
         <textField/>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="coeficientes_lasso_cocha" type="6" refreshedVersion="5" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="C:\Queimadas\R_\fire-model\modelo_topográfico\APA Cocha\resultados\coeficientes_lasso_cocha.csv" comma="1">
-      <textFields count="2">
+  <connection id="2" name="best_AIC_sumario_cave1" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Queimadas\R_\fire-model\modelo_ano\APA Cavernas\resultados\best_AIC_sumario_cave.csv" comma="1">
+      <textFields count="8">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
         <textField/>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="coeficientes_lasso_pand" type="6" refreshedVersion="5" background="1" saveData="1">
-    <textPr codePage="932" sourceFile="C:\Queimadas\R_\fire-model\modelo_topográfico\APA Pandeiros\resultados\coeficientes_lasso_pand.csv" comma="1">
-      <textFields count="2">
+  <connection id="3" name="best_AIC_sumario_cave2" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Queimadas\R_\fire-model\modelo_ano\APA Cavernas\resultados\best_AIC_sumario_cave.csv" comma="1">
+      <textFields count="8">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
         <textField/>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" name="modelo_sumario_cave" type="6" refreshedVersion="5" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="C:\Queimadas\R_\fire-model\modelo_topográfico\APA Cavernas\resultados\modelo_sumario_cave.csv" comma="1">
-      <textFields count="5">
+  <connection id="4" name="best_AIC_sumario_cocha" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Queimadas\R_\fire-model\modelo_ano\APA Cocha\resultados\best_AIC_sumario_cocha.csv" comma="1">
+      <textFields count="14">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
         <textField/>
         <textField/>
         <textField/>
@@ -68,18 +100,75 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="5" name="modelo_sumario_cocha" type="6" refreshedVersion="5" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="C:\Queimadas\R_\fire-model\modelo_topográfico\APA Cocha\resultados\modelo_sumario_cocha.csv" comma="1">
-      <textFields count="5">
-        <textField/>
-        <textField/>
-        <textField/>
+  <connection id="5" name="coeficientes_lasso_cave" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="932" sourceFile="C:\Queimadas\R_\fire-model\modelo_topográfico\APA Cavernas\resultados\coeficientes_lasso_cave.csv" comma="1">
+      <textFields count="2">
         <textField/>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="6" name="modelo_sumario_pand" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="6" name="coeficientes_lasso_cocha" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Queimadas\R_\fire-model\modelo_topográfico\APA Cocha\resultados\coeficientes_lasso_cocha.csv" comma="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="7" name="coeficientes_lasso_pand" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="932" sourceFile="C:\Queimadas\R_\fire-model\modelo_topográfico\APA Pandeiros\resultados\coeficientes_lasso_pand.csv" comma="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="8" name="modelo_sumario_cave" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Queimadas\R_\fire-model\modelo_topográfico\APA Cavernas\resultados\modelo_sumario_cave.csv" comma="1">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="9" name="modelo_sumario_cave1" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Queimadas\R_\fire-model\modelo_ano\APA Cavernas\resultados\modelo_sumario_cave.csv" comma="1">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="10" name="modelo_sumario_cocha" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Queimadas\R_\fire-model\modelo_topográfico\APA Cocha\resultados\modelo_sumario_cocha.csv" comma="1">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="11" name="modelo_sumario_cocha1" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Queimadas\R_\fire-model\modelo_ano\APA Cocha\resultados\modelo_sumario_cocha.csv" comma="1">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="12" name="modelo_sumario_pand" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Queimadas\R_\fire-model\modelo_topográfico\APA Pandeiros\resultados\modelo_sumario_pand.csv" comma="1">
       <textFields count="5">
         <textField/>
@@ -94,7 +183,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="37">
   <si>
     <t>X.Intercept.</t>
   </si>
@@ -166,6 +255,45 @@
   </si>
   <si>
     <t>PANDEIROS REGRESSÃO</t>
+  </si>
+  <si>
+    <t>Pop_dens</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>subset</t>
+  </si>
+  <si>
+    <t>CAVERNAS MODELO 2005_2019 - MODEL.AVG</t>
+  </si>
+  <si>
+    <t>CAVERNAS MODELO 2005_2019_AIC</t>
+  </si>
+  <si>
+    <t>COCHA MODELO 2005_2019 - MODEL.AVG</t>
+  </si>
+  <si>
+    <t>COCHA MODELO 2005_2019_AIC</t>
+  </si>
+  <si>
+    <t>LULC4</t>
+  </si>
+  <si>
+    <t>LULC9</t>
+  </si>
+  <si>
+    <t>LULC12</t>
+  </si>
+  <si>
+    <t>LULC15</t>
+  </si>
+  <si>
+    <t>LULC25</t>
+  </si>
+  <si>
+    <t>LULC41</t>
   </si>
 </sst>
 </file>
@@ -195,7 +323,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -203,18 +331,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -233,27 +386,47 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="modelo_sumario_pand" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="modelo_sumario_cocha_1" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="modelo_sumario_cocha" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="coeficientes_lasso_cocha" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="coeficientes_lasso_pand" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="best_AIC_sumario_cocha_1" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="modelo_sumario_cocha" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="best_AIC_sumario_cave_2" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="coeficientes_lasso_cocha" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="best_AIC_sumario_cave_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="modelo_sumario_cave" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="modelo_sumario_cave_1" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="coeficientes_lasso_cave" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="modelo_sumario_cave" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="modelo_sumario_pand" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="coeficientes_lasso_cave" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="coeficientes_lasso_pand" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -519,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:V36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,9 +704,13 @@
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>1</v>
       </c>
@@ -549,8 +726,28 @@
       <c r="H1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L1" s="5"/>
+      <c r="M1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -572,8 +769,32 @@
       <c r="H2" s="1">
         <v>2.86499587148844E-5</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="5">
+        <v>3.2433014398065301</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0.440684987374586</v>
+      </c>
+      <c r="O2" s="5">
+        <v>7.3596821601043096</v>
+      </c>
+      <c r="P2" s="7">
+        <v>1.8434863566987699E-13</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="S2" s="5">
+        <v>3.2867258666507402</v>
+      </c>
+      <c r="T2" s="5">
+        <v>3.2867258666507402</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -595,9 +816,33 @@
       <c r="H3" s="1">
         <v>2.0232617261196699E-15</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="L3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="5">
+        <v>-3.4079397640759601E-3</v>
+      </c>
+      <c r="N3" s="5">
+        <v>5.5947405367965698E-4</v>
+      </c>
+      <c r="O3" s="5">
+        <v>-6.09132763469899</v>
+      </c>
+      <c r="P3" s="7">
+        <v>1.1197810916305601E-9</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" s="5">
+        <v>-3.3641341629602499E-3</v>
+      </c>
+      <c r="T3" s="5">
+        <v>-3.3641341629602499E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4">
@@ -618,9 +863,33 @@
       <c r="H4" s="1">
         <v>4.2605950178301196E-18</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="L4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="5">
+        <v>-3.7570406761088399E-4</v>
+      </c>
+      <c r="N4" s="7">
+        <v>4.8331205490645301E-5</v>
+      </c>
+      <c r="O4" s="5">
+        <v>-7.7735298301964004</v>
+      </c>
+      <c r="P4" s="7">
+        <v>7.6328668676022E-15</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="S4" s="5">
+        <v>-3.7660819355746602E-4</v>
+      </c>
+      <c r="T4" s="5">
+        <v>-3.7660819355746602E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B5">
@@ -641,8 +910,32 @@
       <c r="H5" s="1">
         <v>3.9033980235846898E-31</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="5">
+        <v>5.8880826170951903E-2</v>
+      </c>
+      <c r="N5" s="5">
+        <v>1.4839551041696999E-2</v>
+      </c>
+      <c r="O5" s="5">
+        <v>3.9678306982135298</v>
+      </c>
+      <c r="P5" s="7">
+        <v>7.2529828221320203E-5</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="S5" s="5">
+        <v>5.8237342298335902E-2</v>
+      </c>
+      <c r="T5" s="5">
+        <v>5.8237342298335902E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -664,9 +957,33 @@
       <c r="H6" s="1">
         <v>6.2304336471426505E-5</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="L6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="5">
+        <v>-1.27801384618537E-4</v>
+      </c>
+      <c r="N6" s="7">
+        <v>2.7533829783929799E-5</v>
+      </c>
+      <c r="O6" s="5">
+        <v>-4.6416130854825299</v>
+      </c>
+      <c r="P6" s="7">
+        <v>3.4569973677488E-6</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S6" s="5">
+        <v>-1.2669263663184999E-4</v>
+      </c>
+      <c r="T6" s="5">
+        <v>-1.2669263663184999E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B7">
@@ -687,9 +1004,33 @@
       <c r="H7">
         <v>5.3386878059233898E-4</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="L7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="5">
+        <v>-0.19494178978583199</v>
+      </c>
+      <c r="N7" s="5">
+        <v>2.4685937756866699E-2</v>
+      </c>
+      <c r="O7" s="5">
+        <v>-7.8968760152369297</v>
+      </c>
+      <c r="P7" s="7">
+        <v>2.8598058995368E-15</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="S7" s="5">
+        <v>-0.19525386982164999</v>
+      </c>
+      <c r="T7" s="5">
+        <v>-0.19525386982164999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1">
@@ -710,41 +1051,136 @@
       <c r="H8" s="1">
         <v>1.7802552838974501E-18</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="L8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="R8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" s="5">
+        <v>-0.127661571815368</v>
+      </c>
+      <c r="T8" s="5">
+        <v>-0.39783391604346802</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B9">
         <v>0.34965449563965101</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="R9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B10">
         <v>3.2808496918936302E-2</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="L12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" s="5">
+        <v>1.14276943943459</v>
+      </c>
+      <c r="N12" s="5">
+        <v>0.39760957166496902</v>
+      </c>
+      <c r="O12" s="5">
+        <v>2.87409942031652</v>
+      </c>
+      <c r="P12" s="5">
+        <v>4.0518139443662601E-3</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="S12" s="5">
+        <v>1.32085028450428</v>
+      </c>
+      <c r="T12" s="5">
+        <v>1.32085028450428</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="L13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M13" s="5">
+        <v>8.2937521069779399E-4</v>
+      </c>
+      <c r="N13" s="5">
+        <v>4.20501467154615E-4</v>
+      </c>
+      <c r="O13" s="5">
+        <v>1.97234795947297</v>
+      </c>
+      <c r="P13" s="5">
+        <v>4.8569898244698602E-2</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="S13" s="5">
+        <v>6.2480540862555601E-4</v>
+      </c>
+      <c r="T13" s="5">
+        <v>8.4863036032900097E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>1</v>
       </c>
@@ -760,8 +1196,32 @@
       <c r="H14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M14" s="5">
+        <v>-1.4446415688911801E-4</v>
+      </c>
+      <c r="N14" s="7">
+        <v>2.26042437227785E-5</v>
+      </c>
+      <c r="O14" s="5">
+        <v>-6.3910192555365199</v>
+      </c>
+      <c r="P14" s="7">
+        <v>1.6478362770447401E-10</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="S14" s="5">
+        <v>-1.4169251145784099E-4</v>
+      </c>
+      <c r="T14" s="5">
+        <v>-1.4169251145784099E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -783,8 +1243,32 @@
       <c r="H15" s="1">
         <v>1.20609717137037E-18</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" s="5">
+        <v>-0.39831117489785101</v>
+      </c>
+      <c r="N15" s="5">
+        <v>0.126729028493997</v>
+      </c>
+      <c r="O15" s="5">
+        <v>-3.1430145060783499</v>
+      </c>
+      <c r="P15" s="5">
+        <v>1.6721755290741501E-3</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S15" s="5">
+        <v>-0.40070984535513199</v>
+      </c>
+      <c r="T15" s="5">
+        <v>-0.40070984535513199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -806,8 +1290,32 @@
       <c r="H16" s="1">
         <v>4.2648456771015802E-8</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16" s="5">
+        <v>-0.75980927662456099</v>
+      </c>
+      <c r="N16" s="5">
+        <v>0.31591255120786799</v>
+      </c>
+      <c r="O16" s="5">
+        <v>-2.4051253225599498</v>
+      </c>
+      <c r="P16" s="5">
+        <v>1.6166920563949298E-2</v>
+      </c>
+      <c r="R16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S16" s="5">
+        <v>-0.756984388541176</v>
+      </c>
+      <c r="T16" s="5">
+        <v>-0.756984388541176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -829,8 +1337,32 @@
       <c r="H17" s="1">
         <v>4.1226127266291101E-10</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M17" s="5">
+        <v>-0.775286296271255</v>
+      </c>
+      <c r="N17" s="5">
+        <v>0.13809193241156301</v>
+      </c>
+      <c r="O17" s="5">
+        <v>-5.6142765383326498</v>
+      </c>
+      <c r="P17" s="7">
+        <v>1.9738632803199301E-8</v>
+      </c>
+      <c r="R17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S17" s="5">
+        <v>-0.77935471844276305</v>
+      </c>
+      <c r="T17" s="5">
+        <v>-0.77935471844276305</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -852,8 +1384,32 @@
       <c r="H18" s="1">
         <v>1.5930498738436199E-21</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M18" s="5">
+        <v>-0.68007954846144103</v>
+      </c>
+      <c r="N18" s="5">
+        <v>0.23607339700954799</v>
+      </c>
+      <c r="O18" s="5">
+        <v>-2.8807970617457301</v>
+      </c>
+      <c r="P18" s="5">
+        <v>3.9667095406493696E-3</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S18" s="5">
+        <v>-0.69135212588186901</v>
+      </c>
+      <c r="T18" s="5">
+        <v>-0.69135212588186901</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -875,53 +1431,196 @@
       <c r="H19" s="1">
         <v>2.1309366921887498E-5</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="L19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M19" s="5">
+        <v>-0.60601562895560901</v>
+      </c>
+      <c r="N19" s="5">
+        <v>0.36605215597240498</v>
+      </c>
+      <c r="O19" s="5">
+        <v>-1.65554448749454</v>
+      </c>
+      <c r="P19" s="5">
+        <v>9.7814100070486396E-2</v>
+      </c>
+      <c r="R19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S19" s="5">
+        <v>-0.61380221091268095</v>
+      </c>
+      <c r="T19" s="5">
+        <v>-0.61380221091268095</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="1">
         <v>-8.4883950183800097E-5</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="L20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M20" s="5">
+        <v>-1.4347151323719201</v>
+      </c>
+      <c r="N20" s="5">
+        <v>0.72376944467592697</v>
+      </c>
+      <c r="O20" s="5">
+        <v>-1.98228198623987</v>
+      </c>
+      <c r="P20" s="5">
+        <v>4.74476890114773E-2</v>
+      </c>
+      <c r="R20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S20" s="5">
+        <v>-1.43217765123546</v>
+      </c>
+      <c r="T20" s="5">
+        <v>-1.43217765123546</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="1">
         <v>1.6251853242502101E-5</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="L21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="5">
+        <v>-3.04286961814873</v>
+      </c>
+      <c r="N21" s="5">
+        <v>0.28881235251975801</v>
+      </c>
+      <c r="O21" s="5">
+        <v>-10.5358015043369</v>
+      </c>
+      <c r="P21" s="7">
+        <v>5.9077847429430606E-26</v>
+      </c>
+      <c r="R21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="5">
+        <v>-3.0606483180340902</v>
+      </c>
+      <c r="T21" s="5">
+        <v>-3.0606483180340902</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B22">
         <v>9.4872458108772303E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="L22" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M22" s="5">
+        <v>0.26018881856230802</v>
+      </c>
+      <c r="N22" s="5">
+        <v>2.8260391102031601E-2</v>
+      </c>
+      <c r="O22" s="5">
+        <v>9.2068371461286507</v>
+      </c>
+      <c r="P22" s="7">
+        <v>3.3587572501111902E-20</v>
+      </c>
+      <c r="R22" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="S22" s="5">
+        <v>0.25777479982884</v>
+      </c>
+      <c r="T22" s="5">
+        <v>0.25777479982884</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B23">
         <v>0.18918623912048499</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="L23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M23" s="7">
+        <v>2.4076803900581199E-5</v>
+      </c>
+      <c r="N23" s="7">
+        <v>5.2990097017156301E-6</v>
+      </c>
+      <c r="O23" s="5">
+        <v>4.5436421625697401</v>
+      </c>
+      <c r="P23" s="7">
+        <v>5.5290486452419102E-6</v>
+      </c>
+      <c r="R23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S23" s="7">
+        <v>2.36326197811521E-5</v>
+      </c>
+      <c r="T23" s="7">
+        <v>2.36326197811521E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="2"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+      <c r="L24" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="R24" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="S24" s="5">
+        <v>-4.7032012471759496E-3</v>
+      </c>
+      <c r="T24" s="5">
+        <v>-1.0369193279278001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R25" s="5"/>
+      <c r="S25" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T25" s="5"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>1</v>
       </c>
@@ -937,8 +1636,12 @@
       <c r="H26" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -960,8 +1663,12 @@
       <c r="H27" s="1">
         <v>7.3991412437419404E-3</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -984,7 +1691,7 @@
         <v>1.21651516673176E-9</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -1007,8 +1714,8 @@
         <v>1.4557204243294399E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B30" s="1">
@@ -1030,8 +1737,8 @@
         <v>1.0731594944471201E-9</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B31" s="1">
@@ -1053,8 +1760,8 @@
         <v>0.44884203026670899</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B32" s="1">
@@ -1077,7 +1784,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B33" s="1">
@@ -1100,22 +1807,22 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B34" s="1">
         <v>-5.5906116656814598E-6</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B35" s="1">
@@ -1123,13 +1830,14 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="2"/>
+      <c r="B36" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="L8:P8"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="D9:H9"/>
     <mergeCell ref="A24:B24"/>
